--- a/1. Exploratory testing/UCHOOSE Log in - Test Case.xlsx
+++ b/1. Exploratory testing/UCHOOSE Log in - Test Case.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6a1b7e5fa1c51a12/Desktop/Test QA uchoose/1. App testing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6a1b7e5fa1c51a12/Desktop/QA-Assignment/1. Exploratory testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_C65FA9F9076E5CDC8954638BB5C07209B95AE8EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E44B9AA3-9410-429C-8FEE-71B28B014973}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_C65FA9F9076E5CDC8954638BB5C07209B95AE8EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52917D7D-9BC0-49A1-BEDB-31720F949A53}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="64">
   <si>
     <t>SCREEN NAME</t>
   </si>
@@ -356,6 +356,9 @@
   <si>
     <t>4. Wait for 15 minutes and click on menus that require login feature</t>
   </si>
+  <si>
+    <t>App requires login again</t>
+  </si>
 </sst>
 </file>
 
@@ -686,32 +689,26 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -728,32 +725,38 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1520,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1572,23 +1575,23 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="21" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="23"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="39"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -1606,21 +1609,21 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="42"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -1638,19 +1641,19 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="26"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="42"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1668,21 +1671,21 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="29"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="45"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1700,17 +1703,17 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="18"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="34"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1732,19 +1735,19 @@
         <v>8</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="30" t="s">
+      <c r="E7" s="34"/>
+      <c r="F7" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="18"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="34"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1762,17 +1765,17 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="18"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="34"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1842,34 +1845,34 @@
     </row>
     <row r="10" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="26" t="s">
         <v>29</v>
       </c>
       <c r="K10" s="10"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
@@ -1886,20 +1889,20 @@
     </row>
     <row r="11" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="10"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
@@ -1916,22 +1919,22 @@
     </row>
     <row r="12" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="10" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
@@ -1948,34 +1951,34 @@
     </row>
     <row r="13" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="9"/>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="26" t="s">
         <v>29</v>
       </c>
       <c r="K13" s="10"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
@@ -1992,20 +1995,20 @@
     </row>
     <row r="14" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="10"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
@@ -2022,22 +2025,22 @@
     </row>
     <row r="15" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="10" t="s">
         <v>31</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
@@ -2054,34 +2057,34 @@
     </row>
     <row r="16" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="9"/>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="26" t="s">
         <v>29</v>
       </c>
       <c r="K16" s="10"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
@@ -2098,20 +2101,20 @@
     </row>
     <row r="17" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F17" s="10"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
@@ -2128,20 +2131,20 @@
     </row>
     <row r="18" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F18" s="12"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
@@ -2158,22 +2161,22 @@
     </row>
     <row r="19" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="9" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
@@ -2190,36 +2193,36 @@
     </row>
     <row r="20" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="9"/>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H20" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="I20" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="J20" s="26" t="s">
         <v>29</v>
       </c>
       <c r="K20" s="10"/>
-      <c r="L20" s="14" t="s">
+      <c r="L20" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="M20" s="14"/>
+      <c r="M20" s="26"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
@@ -2236,20 +2239,20 @@
     </row>
     <row r="21" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F21" s="10"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
       <c r="K21" s="10"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
@@ -2266,20 +2269,20 @@
     </row>
     <row r="22" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
       <c r="E22" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F22" s="12"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
       <c r="K22" s="10"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -2296,22 +2299,22 @@
     </row>
     <row r="23" spans="1:26" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="9" t="s">
         <v>42</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -2328,32 +2331,32 @@
     </row>
     <row r="24" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F24" s="9"/>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14" t="s">
+      <c r="H24" s="26"/>
+      <c r="I24" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="14" t="s">
+      <c r="J24" s="26" t="s">
         <v>29</v>
       </c>
       <c r="K24" s="10"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -2370,20 +2373,20 @@
     </row>
     <row r="25" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
       <c r="E25" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F25" s="10"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
       <c r="K25" s="10"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -2400,20 +2403,20 @@
     </row>
     <row r="26" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F26" s="12"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -2430,22 +2433,22 @@
     </row>
     <row r="27" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="9" t="s">
         <v>42</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
       <c r="K27" s="10"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="35"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="25"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -2462,34 +2465,34 @@
     </row>
     <row r="28" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="26" t="s">
         <v>50</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F28" s="9"/>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="14" t="s">
+      <c r="H28" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="I28" s="14" t="s">
+      <c r="I28" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J28" s="14" t="s">
+      <c r="J28" s="26" t="s">
         <v>29</v>
       </c>
       <c r="K28" s="10"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="34"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="24"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -2506,20 +2509,20 @@
     </row>
     <row r="29" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
       <c r="E29" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F29" s="10"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
       <c r="K29" s="10"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -2536,20 +2539,20 @@
     </row>
     <row r="30" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
       <c r="E30" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F30" s="12"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
       <c r="K30" s="10"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -2566,22 +2569,22 @@
     </row>
     <row r="31" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
       <c r="E31" s="9" t="s">
         <v>42</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
       <c r="K31" s="10"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -2598,28 +2601,30 @@
     </row>
     <row r="32" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="37" t="s">
+      <c r="D32" s="29"/>
+      <c r="E32" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="37"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36" t="s">
+      <c r="F32" s="14"/>
+      <c r="G32" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="J32" s="36" t="s">
+      <c r="J32" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="37"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -2636,20 +2641,20 @@
     </row>
     <row r="33" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="37" t="s">
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="37"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -2666,22 +2671,22 @@
     </row>
     <row r="34" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="37" t="s">
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="41" t="s">
+      <c r="F34" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -2698,20 +2703,20 @@
     </row>
     <row r="35" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="43" t="s">
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="44"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -2728,32 +2733,32 @@
     </row>
     <row r="36" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="14"/>
+      <c r="D36" s="26"/>
       <c r="E36" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F36" s="9"/>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="H36" s="14" t="s">
+      <c r="H36" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="I36" s="14" t="s">
+      <c r="I36" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J36" s="14" t="s">
+      <c r="J36" s="26" t="s">
         <v>29</v>
       </c>
       <c r="K36" s="10"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -2770,20 +2775,20 @@
     </row>
     <row r="37" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
       <c r="E37" s="9" t="s">
         <v>58</v>
       </c>
       <c r="F37" s="10"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
       <c r="K37" s="10"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -2800,20 +2805,20 @@
     </row>
     <row r="38" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
       <c r="E38" s="9" t="s">
         <v>59</v>
       </c>
       <c r="F38" s="12"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
       <c r="K38" s="10"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
@@ -2830,20 +2835,20 @@
     </row>
     <row r="39" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
       <c r="E39" s="9" t="s">
         <v>60</v>
       </c>
       <c r="F39" s="12"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
       <c r="K39" s="10"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -29544,53 +29549,27 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="M32:M35"/>
-    <mergeCell ref="M36:M39"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="M13:M15"/>
-    <mergeCell ref="M16:M19"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="L24:L31"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="L36:L39"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:L5"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="J20:J23"/>
     <mergeCell ref="I36:I39"/>
     <mergeCell ref="J36:J39"/>
     <mergeCell ref="H24:H27"/>
@@ -29602,32 +29581,58 @@
     <mergeCell ref="J32:J35"/>
     <mergeCell ref="I24:I27"/>
     <mergeCell ref="J24:J27"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:L5"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="L10:L12"/>
     <mergeCell ref="I10:I12"/>
     <mergeCell ref="J10:J12"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="G24:G27"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="D20:D23"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
     <mergeCell ref="B20:B23"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="L24:L31"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="L36:L39"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="M32:M35"/>
+    <mergeCell ref="M36:M39"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="M16:M19"/>
+    <mergeCell ref="M20:M23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
